--- a/Map.xlsx
+++ b/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmmaC\Python\text-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD6BD8D-D2B5-4980-9895-029CDEC2C507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A27B47-802E-4214-B545-BBC0F37CB363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9745D849-0837-468D-B101-DC7115F06FB4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>The Silent Threshold</t>
   </si>
@@ -246,13 +246,64 @@
   </si>
   <si>
     <t>gaoler's quarters</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>BFV</t>
+  </si>
+  <si>
+    <t>VMT</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>GoM</t>
+  </si>
+  <si>
+    <t>HBR</t>
+  </si>
+  <si>
+    <t>HoK</t>
+  </si>
+  <si>
+    <t>VoEI</t>
+  </si>
+  <si>
+    <t>VOEI</t>
+  </si>
+  <si>
+    <t>Elixir of the Flesh</t>
+  </si>
+  <si>
+    <t>Strength +1</t>
+  </si>
+  <si>
+    <t>Elixir of the Soul</t>
+  </si>
+  <si>
+    <t>Health +2</t>
+  </si>
+  <si>
+    <t>add unit tests or soul mad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +334,28 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -421,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -497,6 +570,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5994,7 +6079,7 @@
   <dimension ref="C1:AE51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+      <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6218,7 +6303,9 @@
       <c r="J9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="74" t="s">
+        <v>74</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="28" t="s">
         <v>9</v>
@@ -6257,14 +6344,18 @@
       <c r="H10" s="7"/>
       <c r="I10" s="1"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="27"/>
+      <c r="K10" s="74" t="s">
+        <v>73</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="28" t="s">
         <v>10</v>
       </c>
       <c r="N10" s="29"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="30"/>
+      <c r="P10" s="75" t="s">
+        <v>76</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="1"/>
       <c r="S10" s="7" t="s">
@@ -6293,7 +6384,9 @@
       <c r="M11" s="28"/>
       <c r="N11" s="29"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="30"/>
+      <c r="P11" s="75" t="s">
+        <v>75</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="1"/>
       <c r="S11" s="7" t="s">
@@ -6404,14 +6497,16 @@
       <c r="H15" s="7"/>
       <c r="I15" s="1"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="27"/>
+      <c r="K15" s="74"/>
       <c r="L15" s="1"/>
       <c r="M15" s="36" t="s">
         <v>5</v>
       </c>
       <c r="N15" s="37"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="30"/>
+      <c r="P15" s="75" t="s">
+        <v>75</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="1"/>
       <c r="S15" s="7" t="s">
@@ -6434,9 +6529,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="73" t="s">
+        <v>73</v>
+      </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="7"/>
+      <c r="J16" s="73" t="s">
+        <v>73</v>
+      </c>
       <c r="K16" s="27"/>
       <c r="L16" s="1"/>
       <c r="M16" s="36" t="s">
@@ -6450,7 +6549,9 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="1"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
+      <c r="T16" s="73" t="s">
+        <v>76</v>
+      </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="31"/>
@@ -6460,7 +6561,9 @@
       <c r="D17" s="26"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="1"/>
       <c r="J17" s="7" t="s">
@@ -6476,7 +6579,9 @@
       <c r="P17" s="30"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="7"/>
+      <c r="S17" s="73" t="s">
+        <v>75</v>
+      </c>
       <c r="T17" s="7"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -6568,7 +6673,9 @@
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="73" t="s">
+        <v>77</v>
+      </c>
       <c r="K21" s="27"/>
       <c r="L21" s="1"/>
       <c r="M21" s="36" t="s">
@@ -6580,7 +6687,9 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="1"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
+      <c r="T21" s="73" t="s">
+        <v>79</v>
+      </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="31"/>
@@ -6611,7 +6720,9 @@
       <c r="P22" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="Q22" s="7"/>
+      <c r="Q22" s="73" t="s">
+        <v>79</v>
+      </c>
       <c r="R22" s="1"/>
       <c r="S22" s="7" t="s">
         <v>60</v>
@@ -6672,7 +6783,9 @@
       <c r="P24" s="30"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="1"/>
-      <c r="S24" s="7"/>
+      <c r="S24" s="73" t="s">
+        <v>80</v>
+      </c>
       <c r="T24" s="7"/>
       <c r="U24" s="1"/>
       <c r="V24" s="63" t="s">
@@ -6713,7 +6826,9 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="73" t="s">
+        <v>78</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="7"/>
       <c r="K26" s="27"/>
@@ -6739,7 +6854,9 @@
       <c r="H27" s="7"/>
       <c r="I27" s="1"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="27"/>
+      <c r="K27" s="74" t="s">
+        <v>78</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="54"/>
       <c r="N27" s="56"/>
@@ -6773,7 +6890,9 @@
       <c r="M28" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="N28" s="56"/>
+      <c r="N28" s="72" t="s">
+        <v>72</v>
+      </c>
       <c r="O28" s="1"/>
       <c r="P28" s="30" t="s">
         <v>59</v>
@@ -6803,7 +6922,9 @@
       <c r="N29" s="56"/>
       <c r="O29" s="1"/>
       <c r="P29" s="30"/>
-      <c r="Q29" s="7"/>
+      <c r="Q29" s="73" t="s">
+        <v>79</v>
+      </c>
       <c r="R29" s="1"/>
       <c r="S29" s="7" t="s">
         <v>45</v>
@@ -6827,7 +6948,9 @@
       <c r="M30" s="57"/>
       <c r="N30" s="59"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="41"/>
+      <c r="P30" s="76" t="s">
+        <v>81</v>
+      </c>
       <c r="Q30" s="39"/>
       <c r="R30" s="10"/>
       <c r="S30" s="39"/>
@@ -6886,7 +7009,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
       <c r="D33" s="51"/>
       <c r="E33" s="52"/>
@@ -6917,7 +7040,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
       <c r="D34" s="51" t="s">
         <v>16</v>
@@ -6942,9 +7065,14 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
+      <c r="W34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
       <c r="D35" s="51"/>
       <c r="E35" s="52"/>
@@ -6956,7 +7084,9 @@
       <c r="K35" s="55"/>
       <c r="L35" s="1"/>
       <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
+      <c r="N35" s="69" t="s">
+        <v>72</v>
+      </c>
       <c r="O35" s="1"/>
       <c r="P35" s="55"/>
       <c r="Q35" s="56"/>
@@ -6965,9 +7095,14 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
+      <c r="W35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
       <c r="D36" s="51"/>
       <c r="E36" s="52"/>
@@ -6990,7 +7125,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
       <c r="D37" s="26"/>
       <c r="E37" s="1"/>
@@ -7013,7 +7148,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
       <c r="D38" s="51"/>
       <c r="E38" s="52"/>
@@ -7036,30 +7171,40 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
       <c r="D39" s="51"/>
       <c r="E39" s="52"/>
       <c r="F39" s="1"/>
       <c r="G39" s="52"/>
-      <c r="H39" s="53"/>
+      <c r="H39" s="71" t="s">
+        <v>71</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="54"/>
-      <c r="K39" s="55"/>
+      <c r="K39" s="69" t="s">
+        <v>72</v>
+      </c>
       <c r="L39" s="1"/>
       <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
+      <c r="N39" s="69" t="s">
+        <v>70</v>
+      </c>
       <c r="O39" s="1"/>
-      <c r="P39" s="55"/>
+      <c r="P39" s="69" t="s">
+        <v>71</v>
+      </c>
       <c r="Q39" s="56"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
+      <c r="W39" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
       <c r="D40" s="51" t="s">
         <v>18</v>
@@ -7092,7 +7237,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
       <c r="D41" s="51"/>
       <c r="E41" s="52"/>
@@ -7117,7 +7262,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C42" s="1"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
@@ -7140,7 +7285,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
       <c r="D43" s="26"/>
       <c r="E43" s="1"/>
@@ -7163,7 +7308,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
       <c r="D44" s="51"/>
       <c r="E44" s="52"/>
@@ -7186,30 +7331,34 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:26" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C45" s="1"/>
       <c r="D45" s="51"/>
-      <c r="E45" s="52"/>
+      <c r="E45" s="70" t="s">
+        <v>71</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="52"/>
-      <c r="H45" s="53"/>
+      <c r="H45" s="71" t="s">
+        <v>72</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="77"/>
+      <c r="Q45" s="77"/>
+      <c r="R45" s="77"/>
+      <c r="S45" s="77"/>
+      <c r="T45" s="77"/>
+      <c r="U45" s="77"/>
+      <c r="V45" s="77"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:26" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C46" s="1"/>
       <c r="D46" s="51" t="s">
         <v>17</v>
@@ -7224,19 +7373,19 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="77"/>
+      <c r="R46" s="77"/>
+      <c r="S46" s="77"/>
+      <c r="T46" s="77"/>
+      <c r="U46" s="77"/>
+      <c r="V46" s="77"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
       <c r="D47" s="51" t="s">
         <v>48</v>
@@ -7261,7 +7410,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C48" s="1"/>
       <c r="D48" s="60"/>
       <c r="E48" s="61"/>

--- a/Map.xlsx
+++ b/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmmaC\Python\text-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A27B47-802E-4214-B545-BBC0F37CB363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E73D48-9213-44B3-ABAC-3ACDE24354C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9745D849-0837-468D-B101-DC7115F06FB4}"/>
   </bookViews>
@@ -284,19 +284,19 @@
     <t>VOEI</t>
   </si>
   <si>
-    <t>Elixir of the Flesh</t>
-  </si>
-  <si>
     <t>Strength +1</t>
   </si>
   <si>
-    <t>Elixir of the Soul</t>
-  </si>
-  <si>
     <t>Health +2</t>
   </si>
   <si>
     <t>add unit tests or soul mad</t>
+  </si>
+  <si>
+    <t>Elixir of Flesh</t>
+  </si>
+  <si>
+    <t>Elixir of Soul</t>
   </si>
 </sst>
 </file>
@@ -6079,7 +6079,7 @@
   <dimension ref="C1:AE51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7066,10 +7066,10 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z34" t="s">
         <v>82</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="35" spans="3:26" x14ac:dyDescent="0.3">
@@ -7096,10 +7096,10 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="3:26" x14ac:dyDescent="0.3">
@@ -7201,7 +7201,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="3:26" x14ac:dyDescent="0.3">

--- a/Map.xlsx
+++ b/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmmaC\Python\text-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E73D48-9213-44B3-ABAC-3ACDE24354C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E824CD5B-65A2-459C-BF10-4E9D4658C3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9745D849-0837-468D-B101-DC7115F06FB4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
   <si>
     <t>The Silent Threshold</t>
   </si>
@@ -297,13 +297,22 @@
   </si>
   <si>
     <t>Elixir of Soul</t>
+  </si>
+  <si>
+    <t>The rough cut stone floor of the foyer is marked with scratches and deep gouges, as if a battle had taken place here long before. Stale yet</t>
+  </si>
+  <si>
+    <t>still liquid blood congeals underfoot. To the west is a small room that perhaps once housed a guard, and to the north you see some makeshift</t>
+  </si>
+  <si>
+    <t>fortifications as if against some threat further inside. Back east lays the door to the main hall.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,8 +366,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +414,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -580,6 +602,16 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6079,7 +6111,7 @@
   <dimension ref="C1:AE51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7009,7 +7041,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
       <c r="D33" s="51"/>
       <c r="E33" s="52"/>
@@ -7040,7 +7072,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
       <c r="D34" s="51" t="s">
         <v>16</v>
@@ -7072,7 +7104,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
       <c r="D35" s="51"/>
       <c r="E35" s="52"/>
@@ -7102,7 +7134,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
       <c r="D36" s="51"/>
       <c r="E36" s="52"/>
@@ -7125,7 +7157,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
       <c r="D37" s="26"/>
       <c r="E37" s="1"/>
@@ -7148,7 +7180,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
       <c r="D38" s="51"/>
       <c r="E38" s="52"/>
@@ -7171,7 +7203,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
       <c r="D39" s="51"/>
       <c r="E39" s="52"/>
@@ -7204,7 +7236,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
       <c r="D40" s="51" t="s">
         <v>18</v>
@@ -7237,7 +7269,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
       <c r="D41" s="51"/>
       <c r="E41" s="52"/>
@@ -7262,7 +7294,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C42" s="1"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
@@ -7285,7 +7317,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
       <c r="D43" s="26"/>
       <c r="E43" s="1"/>
@@ -7308,7 +7340,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
       <c r="D44" s="51"/>
       <c r="E44" s="52"/>
@@ -7331,7 +7363,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="3:26" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:31" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C45" s="1"/>
       <c r="D45" s="51"/>
       <c r="E45" s="70" t="s">
@@ -7352,13 +7384,23 @@
       <c r="P45" s="77"/>
       <c r="Q45" s="77"/>
       <c r="R45" s="77"/>
-      <c r="S45" s="77"/>
-      <c r="T45" s="77"/>
-      <c r="U45" s="77"/>
-      <c r="V45" s="77"/>
-      <c r="W45" s="1"/>
+      <c r="S45" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
+      <c r="W45" s="81"/>
+      <c r="X45" s="81"/>
+      <c r="Y45" s="81"/>
+      <c r="Z45" s="81"/>
+      <c r="AA45" s="81"/>
+      <c r="AB45" s="81"/>
+      <c r="AC45" s="81"/>
+      <c r="AD45" s="81"/>
+      <c r="AE45" s="79"/>
     </row>
-    <row r="46" spans="3:26" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:31" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C46" s="1"/>
       <c r="D46" s="51" t="s">
         <v>17</v>
@@ -7379,13 +7421,23 @@
       <c r="P46" s="77"/>
       <c r="Q46" s="77"/>
       <c r="R46" s="77"/>
-      <c r="S46" s="77"/>
-      <c r="T46" s="77"/>
-      <c r="U46" s="77"/>
-      <c r="V46" s="77"/>
-      <c r="W46" s="1"/>
+      <c r="S46" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="T46" s="80"/>
+      <c r="U46" s="80"/>
+      <c r="V46" s="80"/>
+      <c r="W46" s="81"/>
+      <c r="X46" s="81"/>
+      <c r="Y46" s="81"/>
+      <c r="Z46" s="81"/>
+      <c r="AA46" s="81"/>
+      <c r="AB46" s="81"/>
+      <c r="AC46" s="81"/>
+      <c r="AD46" s="81"/>
+      <c r="AE46" s="79"/>
     </row>
-    <row r="47" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
       <c r="D47" s="51" t="s">
         <v>48</v>
@@ -7404,13 +7456,23 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
+      <c r="S47" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="T47" s="81"/>
+      <c r="U47" s="81"/>
+      <c r="V47" s="81"/>
+      <c r="W47" s="81"/>
+      <c r="X47" s="81"/>
+      <c r="Y47" s="81"/>
+      <c r="Z47" s="81"/>
+      <c r="AA47" s="81"/>
+      <c r="AB47" s="81"/>
+      <c r="AC47" s="81"/>
+      <c r="AD47" s="81"/>
+      <c r="AE47" s="79"/>
     </row>
-    <row r="48" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C48" s="1"/>
       <c r="D48" s="60"/>
       <c r="E48" s="61"/>
